--- a/docs/playground/Q2.xlsx
+++ b/docs/playground/Q2.xlsx
@@ -19,90 +19,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>simulate</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>mse_score</t>
   </si>
   <si>
     <t>simulate_n</t>
   </si>
   <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>method_FILE</t>
-  </si>
-  <si>
-    <t>mse_score</t>
+    <t>simulate_identifier</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>estimate_identifier</t>
+  </si>
+  <si>
+    <t>normal_2_mean_1_mse_1</t>
   </si>
   <si>
     <t>t</t>
   </si>
   <si>
+    <t>normal_2_mean_1</t>
+  </si>
+  <si>
     <t>median</t>
   </si>
   <si>
-    <t>normal_2_mean_1</t>
-  </si>
-  <si>
-    <t>dsc_result/normal_2_mean_1_mse_1</t>
-  </si>
-  <si>
-    <t>normal_4_mean_1</t>
-  </si>
-  <si>
-    <t>dsc_result/normal_4_mean_1_mse_1</t>
-  </si>
-  <si>
-    <t>normal_6_mean_1</t>
-  </si>
-  <si>
-    <t>dsc_result/normal_6_mean_1_mse_1</t>
-  </si>
-  <si>
-    <t>normal_8_mean_1</t>
-  </si>
-  <si>
-    <t>dsc_result/normal_8_mean_1_mse_1</t>
-  </si>
-  <si>
-    <t>normal_10_mean_1</t>
-  </si>
-  <si>
-    <t>dsc_result/normal_10_mean_1_mse_1</t>
+    <t>normal_2_median_1_mse_1</t>
+  </si>
+  <si>
+    <t>normal_2_median_1</t>
   </si>
   <si>
     <t>mean</t>
   </si>
   <si>
-    <t>normal_2_median_1</t>
-  </si>
-  <si>
-    <t>dsc_result/normal_2_median_1_mse_1</t>
-  </si>
-  <si>
-    <t>normal_4_median_1</t>
-  </si>
-  <si>
-    <t>dsc_result/normal_4_median_1_mse_1</t>
-  </si>
-  <si>
-    <t>normal_6_median_1</t>
-  </si>
-  <si>
-    <t>dsc_result/normal_6_median_1_mse_1</t>
-  </si>
-  <si>
-    <t>normal_8_median_1</t>
-  </si>
-  <si>
-    <t>dsc_result/normal_8_median_1_mse_1</t>
-  </si>
-  <si>
-    <t>normal_10_median_1</t>
-  </si>
-  <si>
-    <t>dsc_result/normal_10_median_1_mse_1</t>
+    <t>t_2_mean_1_mse_1</t>
   </si>
   <si>
     <t>normal</t>
@@ -111,61 +66,10 @@
     <t>t_2_mean_1</t>
   </si>
   <si>
-    <t>dsc_result/t_2_mean_1_mse_1</t>
-  </si>
-  <si>
-    <t>t_4_mean_1</t>
-  </si>
-  <si>
-    <t>dsc_result/t_4_mean_1_mse_1</t>
-  </si>
-  <si>
-    <t>t_6_mean_1</t>
-  </si>
-  <si>
-    <t>dsc_result/t_6_mean_1_mse_1</t>
-  </si>
-  <si>
-    <t>t_8_mean_1</t>
-  </si>
-  <si>
-    <t>dsc_result/t_8_mean_1_mse_1</t>
-  </si>
-  <si>
-    <t>t_10_mean_1</t>
-  </si>
-  <si>
-    <t>dsc_result/t_10_mean_1_mse_1</t>
+    <t>t_2_median_1_mse_1</t>
   </si>
   <si>
     <t>t_2_median_1</t>
-  </si>
-  <si>
-    <t>dsc_result/t_2_median_1_mse_1</t>
-  </si>
-  <si>
-    <t>t_4_median_1</t>
-  </si>
-  <si>
-    <t>dsc_result/t_4_median_1_mse_1</t>
-  </si>
-  <si>
-    <t>t_6_median_1</t>
-  </si>
-  <si>
-    <t>dsc_result/t_6_median_1_mse_1</t>
-  </si>
-  <si>
-    <t>t_8_median_1</t>
-  </si>
-  <si>
-    <t>dsc_result/t_8_median_1_mse_1</t>
-  </si>
-  <si>
-    <t>t_10_median_1</t>
-  </si>
-  <si>
-    <t>dsc_result/t_10_median_1_mse_1</t>
   </si>
   <si>
     <t>normal_n</t>
@@ -526,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +474,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
         <v>1000</v>
@@ -579,316 +483,44 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>1000</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
         <v>1000</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -902,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,13 +544,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -929,51 +561,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,13 +585,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1011,54 +599,10 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,13 +626,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1096,54 +640,10 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1167,13 +667,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1181,54 +681,10 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
